--- a/StructureDefinition-svc-immunization-updated.xlsx
+++ b/StructureDefinition-svc-immunization-updated.xlsx
@@ -1402,7 +1402,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
 </t>
   </si>
   <si>
@@ -1775,7 +1775,7 @@
     <t>ProtocolApplied_Authority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-organization)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
   </si>
 </sst>
